--- a/results/Homeopathy_excluded/mod2.lrgen.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod2.lrgen.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0508152575236889</v>
+        <v>0.0508162708990041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0339177883464443</v>
+        <v>0.0339176922615282</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0156623860705942</v>
+        <v>-0.015661184372304</v>
       </c>
       <c r="F2" t="n">
-        <v>0.117292901117972</v>
+        <v>0.117293726170312</v>
       </c>
       <c r="G2" t="n">
-        <v>1.49818900350017</v>
+        <v>1.49822312518129</v>
       </c>
       <c r="H2" t="n">
-        <v>0.134084151852857</v>
+        <v>0.134075289334756</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0243308551355017</v>
+        <v>0.024328242982124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0827950777510274</v>
+        <v>0.0827948407502296</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.137944515353705</v>
+        <v>-0.137946662994055</v>
       </c>
       <c r="F3" t="n">
-        <v>0.186606225624709</v>
+        <v>0.186603148958303</v>
       </c>
       <c r="G3" t="n">
-        <v>0.293868377159653</v>
+        <v>0.293837668647929</v>
       </c>
       <c r="H3" t="n">
-        <v>0.768858483082499</v>
+        <v>0.768881949578899</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0551616386596953</v>
+        <v>-0.0551607517868171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0354118137604719</v>
+        <v>0.0354117378257354</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.12456751825746</v>
+        <v>-0.124566482555233</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0142442409380696</v>
+        <v>0.0142449789815991</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.55771853519881</v>
+        <v>-1.55769683087197</v>
       </c>
       <c r="H4" t="n">
-        <v>0.119299984707883</v>
+        <v>0.119305132117847</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0199844739994953</v>
+        <v>-0.0199837620943111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0299913324211486</v>
+        <v>0.0299912483337028</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0787664053933149</v>
+        <v>-0.0787655286797654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0387974573943244</v>
+        <v>0.0387980044911433</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.666341652276945</v>
+        <v>-0.666319783423427</v>
       </c>
       <c r="H5" t="n">
-        <v>0.505192747985395</v>
+        <v>0.50520672303747</v>
       </c>
     </row>
   </sheetData>
